--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
@@ -531,34 +531,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.56551464986131</v>
+        <v>6.664768333333334</v>
       </c>
       <c r="H2">
-        <v>5.56551464986131</v>
+        <v>19.994305</v>
       </c>
       <c r="I2">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="J2">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.272705603089138</v>
+        <v>0.3103893333333334</v>
       </c>
       <c r="N2">
-        <v>0.272705603089138</v>
+        <v>0.931168</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.517747029091861</v>
+        <v>2.068672999804445</v>
       </c>
       <c r="R2">
-        <v>1.517747029091861</v>
+        <v>18.61805699824</v>
       </c>
       <c r="S2">
-        <v>0.05702532795953111</v>
+        <v>0.06516174319532789</v>
       </c>
       <c r="T2">
-        <v>0.05702532795953111</v>
+        <v>0.0651617431953279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,34 +593,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.1094810435203</v>
+        <v>47.25592399999999</v>
       </c>
       <c r="H3">
-        <v>47.1094810435203</v>
+        <v>141.767772</v>
       </c>
       <c r="I3">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="J3">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.272705603089138</v>
+        <v>0.3103893333333334</v>
       </c>
       <c r="N3">
-        <v>0.272705603089138</v>
+        <v>0.931168</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>12.84701943918952</v>
+        <v>14.66773474641067</v>
       </c>
       <c r="R3">
-        <v>12.84701943918952</v>
+        <v>132.009612717696</v>
       </c>
       <c r="S3">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
       <c r="T3">
-        <v>0.4826927562893044</v>
+        <v>0.4620233187619072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,34 +655,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.204973893948</v>
+        <v>20.98736333333333</v>
       </c>
       <c r="H4">
-        <v>19.204973893948</v>
+        <v>62.96209</v>
       </c>
       <c r="I4">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="J4">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.272705603089138</v>
+        <v>0.3103893333333334</v>
       </c>
       <c r="N4">
-        <v>0.272705603089138</v>
+        <v>0.931168</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>5.237303988060241</v>
+        <v>6.514253713457778</v>
       </c>
       <c r="R4">
-        <v>5.237303988060241</v>
+        <v>58.62828342112</v>
       </c>
       <c r="S4">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881897</v>
       </c>
       <c r="T4">
-        <v>0.1967778370296643</v>
+        <v>0.2051944060881898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,34 +717,34 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.7172709548197</v>
+        <v>27.37233166666667</v>
       </c>
       <c r="H5">
-        <v>25.7172709548197</v>
+        <v>82.116995</v>
       </c>
       <c r="I5">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="J5">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.272705603089138</v>
+        <v>0.3103893333333334</v>
       </c>
       <c r="N5">
-        <v>0.272705603089138</v>
+        <v>0.931168</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>7.013243885540878</v>
+        <v>8.496079777795556</v>
       </c>
       <c r="R5">
-        <v>7.013243885540878</v>
+        <v>76.46471800016</v>
       </c>
       <c r="S5">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
       <c r="T5">
-        <v>0.2635040787215002</v>
+        <v>0.2676205319545753</v>
       </c>
     </row>
   </sheetData>
